--- a/biology/Botanique/Oléo-protéagineux/Oléo-protéagineux.xlsx
+++ b/biology/Botanique/Oléo-protéagineux/Oléo-protéagineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ol%C3%A9o-prot%C3%A9agineux</t>
+          <t>Oléo-protéagineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oléo-protéagineux ou oléoprotéagineux[1] sont les graines ou des fruits qui sont à la fois riche en lipides et en protéines, comme l'arachide, le colza, le tournesol, les lentilles, ou le soja[2].
-La production mondiale d'oléo-protéagineux serait de 663 millions de tonnes durant la saison 2023-2024, selon les données du département de l'Agriculture des États-Unis. L'Afrique n'en produit que 23 millions de tonnes et doit en importer[3].
-Les oléo-protéagineux sont surtout utilisées pour produire de l’huile mais servent aussi pour l’élevage afin d’équilibrer les rations en nutriments[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oléo-protéagineux ou oléoprotéagineux sont les graines ou des fruits qui sont à la fois riche en lipides et en protéines, comme l'arachide, le colza, le tournesol, les lentilles, ou le soja.
+La production mondiale d'oléo-protéagineux serait de 663 millions de tonnes durant la saison 2023-2024, selon les données du département de l'Agriculture des États-Unis. L'Afrique n'en produit que 23 millions de tonnes et doit en importer.
+Les oléo-protéagineux sont surtout utilisées pour produire de l’huile mais servent aussi pour l’élevage afin d’équilibrer les rations en nutriments.
 </t>
         </is>
       </c>
